--- a/data/korea_map_21th_election_type_b_result.xlsx
+++ b/data/korea_map_21th_election_type_b_result.xlsx
@@ -734,11 +734,11 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>정의당</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -870,15 +870,23 @@
           <t>광명 갑</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>임오경</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>광명시갑</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -919,7 +927,7 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1026,7 +1034,7 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1067,7 +1075,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1108,7 +1116,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1323,7 +1331,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -1364,7 +1372,7 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -1438,7 +1446,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -1547,7 +1555,7 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -1588,7 +1596,7 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -1629,7 +1637,7 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -1703,7 +1711,7 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -1744,7 +1752,7 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -1785,7 +1793,7 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -1810,15 +1818,23 @@
           <t>시흥 갑</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>문정복</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>시흥시갑</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -1859,7 +1875,7 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -1901,7 +1917,7 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -1977,7 +1993,7 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -2019,7 +2035,7 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -2060,7 +2076,7 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2102,7 +2118,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -2144,7 +2160,7 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
@@ -2185,7 +2201,7 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -2226,7 +2242,7 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -2308,7 +2324,7 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
@@ -2423,7 +2439,7 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
@@ -2464,7 +2480,7 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
@@ -2505,7 +2521,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -2653,7 +2669,7 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61">
@@ -2834,7 +2850,7 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -2908,7 +2924,7 @@
         </is>
       </c>
       <c r="I67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -2949,7 +2965,7 @@
         </is>
       </c>
       <c r="I68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69">
@@ -3015,15 +3031,23 @@
           <t>김해 갑</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>민홍철</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>김해시갑</t>
+        </is>
+      </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71">
@@ -3183,7 +3207,7 @@
         </is>
       </c>
       <c r="I74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
@@ -4061,15 +4085,23 @@
 울릉</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>김병욱</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>포항시남구울릉군</t>
+        </is>
+      </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>미래통합당</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -4151,7 +4183,7 @@
         </is>
       </c>
       <c r="I98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99">
@@ -4192,7 +4224,7 @@
         </is>
       </c>
       <c r="I99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100">
@@ -4233,7 +4265,7 @@
         </is>
       </c>
       <c r="I100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101">
@@ -4274,7 +4306,7 @@
         </is>
       </c>
       <c r="I101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102">
@@ -4348,7 +4380,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104">
@@ -4406,15 +4438,23 @@
           <t>서구 을</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>양향자</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>서구을</t>
+        </is>
+      </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106">
@@ -4924,15 +4964,23 @@
           <t>대덕구</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>박영순</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>대덕구</t>
+        </is>
+      </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119">
@@ -5138,7 +5186,7 @@
         </is>
       </c>
       <c r="I124" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125">
@@ -5294,7 +5342,7 @@
         </is>
       </c>
       <c r="I128" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129">
@@ -5459,7 +5507,7 @@
         </is>
       </c>
       <c r="I132" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133">
@@ -6126,7 +6174,7 @@
         </is>
       </c>
       <c r="I150" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151">
@@ -6200,7 +6248,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153">
@@ -6373,7 +6421,7 @@
         </is>
       </c>
       <c r="I157" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158">
@@ -6414,7 +6462,7 @@
         </is>
       </c>
       <c r="I158" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159">
@@ -6455,7 +6503,7 @@
         </is>
       </c>
       <c r="I159" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160">
@@ -6496,7 +6544,7 @@
         </is>
       </c>
       <c r="I160" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161">
@@ -6570,7 +6618,7 @@
         </is>
       </c>
       <c r="I162" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163">
@@ -6842,7 +6890,7 @@
         </is>
       </c>
       <c r="I170" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171">
@@ -6883,7 +6931,7 @@
         </is>
       </c>
       <c r="I171" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172">
@@ -6924,7 +6972,7 @@
         </is>
       </c>
       <c r="I172" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173">
@@ -7023,15 +7071,23 @@
           <t>성북 갑</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr"/>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>김영배</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>성북구갑</t>
+        </is>
+      </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176">
@@ -7072,7 +7128,7 @@
         </is>
       </c>
       <c r="I176" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177">
@@ -7385,7 +7441,7 @@
         </is>
       </c>
       <c r="I185" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186">
@@ -7426,7 +7482,7 @@
         </is>
       </c>
       <c r="I186" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187">
@@ -7467,7 +7523,7 @@
         </is>
       </c>
       <c r="I187" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188">
@@ -7576,7 +7632,7 @@
         </is>
       </c>
       <c r="I190" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191">
@@ -7617,7 +7673,7 @@
         </is>
       </c>
       <c r="I191" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192">
@@ -7658,7 +7714,7 @@
         </is>
       </c>
       <c r="I192" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="193">
@@ -7699,7 +7755,7 @@
         </is>
       </c>
       <c r="I193" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="194">
@@ -7979,7 +8035,7 @@
         </is>
       </c>
       <c r="I200" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201">
@@ -8020,7 +8076,7 @@
         </is>
       </c>
       <c r="I201" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202">
@@ -8164,7 +8220,7 @@
         </is>
       </c>
       <c r="I205" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="206">
@@ -8205,7 +8261,7 @@
         </is>
       </c>
       <c r="I206" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="207">
@@ -8246,7 +8302,7 @@
         </is>
       </c>
       <c r="I207" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="208">
@@ -8271,15 +8327,23 @@
           <t>서구 갑</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>김교흥</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>서구갑</t>
+        </is>
+      </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I208" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="209">
@@ -8320,7 +8384,7 @@
         </is>
       </c>
       <c r="I209" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="210">
@@ -8361,7 +8425,7 @@
         </is>
       </c>
       <c r="I210" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="211">
@@ -8479,7 +8543,7 @@
         </is>
       </c>
       <c r="I213" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="214">
@@ -8520,7 +8584,7 @@
         </is>
       </c>
       <c r="I214" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="215">
@@ -8562,7 +8626,7 @@
         </is>
       </c>
       <c r="I215" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="216">
@@ -8638,7 +8702,7 @@
         </is>
       </c>
       <c r="I217" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="218">
@@ -8681,7 +8745,7 @@
         </is>
       </c>
       <c r="I218" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="219">
@@ -8722,7 +8786,7 @@
         </is>
       </c>
       <c r="I219" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="220">
@@ -8763,7 +8827,7 @@
         </is>
       </c>
       <c r="I220" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="221">
@@ -8806,7 +8870,7 @@
         </is>
       </c>
       <c r="I221" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="222">
@@ -8849,7 +8913,7 @@
         </is>
       </c>
       <c r="I222" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="223">
@@ -8890,7 +8954,7 @@
         </is>
       </c>
       <c r="I223" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="224">
@@ -8931,7 +8995,7 @@
         </is>
       </c>
       <c r="I224" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="225">
@@ -8974,7 +9038,7 @@
         </is>
       </c>
       <c r="I225" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="226">
@@ -9016,7 +9080,7 @@
         </is>
       </c>
       <c r="I226" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="227">
@@ -9057,7 +9121,7 @@
         </is>
       </c>
       <c r="I227" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="228">
@@ -9098,7 +9162,7 @@
         </is>
       </c>
       <c r="I228" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="229">
@@ -9139,7 +9203,7 @@
         </is>
       </c>
       <c r="I229" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="230">
@@ -9180,7 +9244,7 @@
         </is>
       </c>
       <c r="I230" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="231">
@@ -9221,7 +9285,7 @@
         </is>
       </c>
       <c r="I231" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232">
@@ -9262,7 +9326,7 @@
         </is>
       </c>
       <c r="I232" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233">
@@ -9303,7 +9367,7 @@
         </is>
       </c>
       <c r="I233" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="234">
@@ -9344,7 +9408,7 @@
         </is>
       </c>
       <c r="I234" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="235">
@@ -9385,7 +9449,7 @@
         </is>
       </c>
       <c r="I235" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="236">
@@ -9471,7 +9535,7 @@
         </is>
       </c>
       <c r="I237" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="238">
@@ -9512,7 +9576,7 @@
         </is>
       </c>
       <c r="I238" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239">
@@ -9668,7 +9732,7 @@
         </is>
       </c>
       <c r="I242" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="243">
@@ -9775,7 +9839,7 @@
         </is>
       </c>
       <c r="I245" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246">
@@ -9942,7 +10006,7 @@
         </is>
       </c>
       <c r="I249" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250">
@@ -9967,15 +10031,23 @@
           <t>청주 상당</t>
         </is>
       </c>
-      <c r="F250" t="inlineStr"/>
-      <c r="G250" t="inlineStr"/>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>정정순</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>청주시상당구</t>
+        </is>
+      </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I250" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="251">
@@ -10016,7 +10088,7 @@
         </is>
       </c>
       <c r="I251" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="252">
@@ -10090,7 +10162,7 @@
         </is>
       </c>
       <c r="I253" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="254">

--- a/data/korea_map_21th_election_type_b_result.xlsx
+++ b/data/korea_map_21th_election_type_b_result.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -435,11 +435,19 @@
           <t>강릉시</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>권성동</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>강릉시</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>무소속</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -552,15 +560,23 @@
           <t>원주 갑</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>이광재</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>원주시갑</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -585,15 +601,23 @@
           <t>원주 을</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>송기헌</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>원주시을</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -620,15 +644,23 @@
 갑</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>허영</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>춘천시철원군화천군양구군갑</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -655,15 +687,23 @@
 을</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>한기호</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>춘천시철원군화천군양구군을</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>미래통합당</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -730,15 +770,23 @@
           <t>고양 갑</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>심상정</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>고양시갑</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr">
         <is>
           <t>정의당</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -779,7 +827,7 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -804,15 +852,23 @@
           <t>고양 을</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>한준호</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>고양시을</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -837,15 +893,23 @@
           <t>고양 정</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>이용우</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>고양시정</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -886,7 +950,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -927,7 +991,7 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -952,15 +1016,23 @@
           <t>광주 갑</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>소병훈</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>광주시갑</t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -985,15 +1057,23 @@
           <t>광주 을</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>임종성</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>광주시을</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1034,7 +1114,7 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1075,7 +1155,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1116,7 +1196,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1141,15 +1221,23 @@
           <t>김포 을</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>박상혁</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>김포시을</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1174,15 +1262,23 @@
           <t>남양주 갑</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>조응천</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>남양주시갑</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -1207,15 +1303,23 @@
           <t>남양주 병</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>김용민</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>남양주시병</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -1240,15 +1344,23 @@
           <t>남양주 을</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>김한정</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>남양주시을</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -1331,7 +1443,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1372,7 +1484,7 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1397,15 +1509,23 @@
           <t>부천 을</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>설훈</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>부천시을</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -1446,7 +1566,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -1472,15 +1592,23 @@
 갑</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>김은혜</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>성남시분당구갑</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>미래통합당</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1506,15 +1634,23 @@
 을</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>김병욱</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>성남시분당구을</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -1555,7 +1691,7 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -1596,7 +1732,7 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -1637,7 +1773,7 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -1662,15 +1798,23 @@
           <t>수원시무</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>김진표</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>수원시무</t>
+        </is>
+      </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -1711,7 +1855,7 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -1752,7 +1896,7 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -1793,7 +1937,7 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -1834,7 +1978,7 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -1875,7 +2019,7 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -1917,7 +2061,7 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -1943,15 +2087,23 @@
 을</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>김남국</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>안산시단원구을</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -1993,7 +2145,7 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -2035,7 +2187,7 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -2076,7 +2228,7 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -2118,7 +2270,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -2160,7 +2312,7 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -2201,7 +2353,7 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -2242,7 +2394,7 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2324,7 +2476,7 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -2390,15 +2542,23 @@
           <t>용인 병</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>정춘숙</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>용인시병</t>
+        </is>
+      </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -2439,7 +2599,7 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -2480,7 +2640,7 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -2521,7 +2681,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -2546,15 +2706,23 @@
           <t>의정부 갑</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>오영환</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>의정부시갑</t>
+        </is>
+      </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -2579,15 +2747,23 @@
           <t>의정부 을</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>김민철</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>의정부시을</t>
+        </is>
+      </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -2669,7 +2845,7 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -2694,15 +2870,23 @@
           <t>파주 을</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>박정</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>파주시을</t>
+        </is>
+      </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -2727,15 +2911,23 @@
           <t>평택 갑</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>홍기원</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>평택시갑</t>
+        </is>
+      </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -2760,15 +2952,23 @@
           <t>평택 을</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>유의동</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>평택시을</t>
+        </is>
+      </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>미래통합당</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2850,7 +3050,7 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -2875,15 +3075,23 @@
           <t>화성 갑</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>송옥주</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>화성시갑</t>
+        </is>
+      </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
@@ -2924,7 +3132,7 @@
         </is>
       </c>
       <c r="I67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -2965,7 +3173,7 @@
         </is>
       </c>
       <c r="I68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -3047,7 +3255,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -3072,15 +3280,23 @@
           <t>김해 을</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>김정호</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>김해시을</t>
+        </is>
+      </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -3207,7 +3423,7 @@
         </is>
       </c>
       <c r="I74" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -3273,15 +3489,23 @@
           <t>양산 을</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>김두관</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>양산시을</t>
+        </is>
+      </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -3554,15 +3778,23 @@
           <t>창원 진해</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>이달곤</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>창원시진해구</t>
+        </is>
+      </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>미래통합당</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -4183,7 +4415,7 @@
         </is>
       </c>
       <c r="I98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -4224,7 +4456,7 @@
         </is>
       </c>
       <c r="I99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
@@ -4265,7 +4497,7 @@
         </is>
       </c>
       <c r="I100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -4306,7 +4538,7 @@
         </is>
       </c>
       <c r="I101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
@@ -4331,15 +4563,23 @@
           <t>북구 갑</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>조오섭</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>북구갑</t>
+        </is>
+      </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
@@ -4380,7 +4620,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
@@ -4405,15 +4645,23 @@
           <t>서구 갑</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>송갑석</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>서구갑</t>
+        </is>
+      </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
@@ -4454,7 +4702,7 @@
         </is>
       </c>
       <c r="I105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
@@ -4890,11 +5138,19 @@
           <t>수성 을</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>홍준표</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>수성구을</t>
+        </is>
+      </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>무소속</t>
         </is>
       </c>
       <c r="I116" t="n">
@@ -4980,7 +5236,7 @@
         </is>
       </c>
       <c r="I118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
@@ -5005,15 +5261,23 @@
           <t>동구</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>장철민</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>동구</t>
+        </is>
+      </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120">
@@ -5038,15 +5302,23 @@
           <t>서구 갑</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>박병석</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>서구갑</t>
+        </is>
+      </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
@@ -5071,15 +5343,23 @@
           <t>서구 을</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>박범계</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>서구을</t>
+        </is>
+      </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
@@ -5104,15 +5384,23 @@
           <t>유성 갑</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>조승래</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>유성구갑</t>
+        </is>
+      </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
@@ -5137,15 +5425,23 @@
           <t>유성 을</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>이상민</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>유성구을</t>
+        </is>
+      </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
@@ -5186,7 +5482,7 @@
         </is>
       </c>
       <c r="I124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
@@ -5211,15 +5507,23 @@
           <t>금정</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>백종헌</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>금정구</t>
+        </is>
+      </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>미래통합당</t>
         </is>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -5342,7 +5646,7 @@
         </is>
       </c>
       <c r="I128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
@@ -5507,7 +5811,7 @@
         </is>
       </c>
       <c r="I132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133">
@@ -5574,15 +5878,23 @@
           <t>사상</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>장제원</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>사상구</t>
+        </is>
+      </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>미래통합당</t>
         </is>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -5607,15 +5919,23 @@
           <t>사하 갑</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>최인호</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>사하구갑</t>
+        </is>
+      </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136">
@@ -5763,15 +6083,23 @@
           <t>연제</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr"/>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>이주환</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>연제구</t>
+        </is>
+      </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>미래통합당</t>
         </is>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -5919,15 +6247,23 @@
           <t>강남 갑</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr"/>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>태구민</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>강남구갑</t>
+        </is>
+      </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>미래통합당</t>
         </is>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -5993,15 +6329,23 @@
           <t>강남 을</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>박진</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>강남구을</t>
+        </is>
+      </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>미래통합당</t>
         </is>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -6026,15 +6370,23 @@
           <t>강동 갑</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>진선미</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>강동구갑</t>
+        </is>
+      </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
@@ -6059,15 +6411,23 @@
           <t>강동 을</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>이해식</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>강동구을</t>
+        </is>
+      </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
@@ -6092,15 +6452,23 @@
           <t>강북 갑</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>천준호</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>강북구갑</t>
+        </is>
+      </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
@@ -6125,15 +6493,23 @@
           <t>강북 을</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>박용진</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>강북구을</t>
+        </is>
+      </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150">
@@ -6174,7 +6550,7 @@
         </is>
       </c>
       <c r="I150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151">
@@ -6199,15 +6575,23 @@
           <t>강서 병</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>한정애</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>강서구병</t>
+        </is>
+      </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152">
@@ -6248,7 +6632,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153">
@@ -6273,15 +6657,23 @@
           <t>관악 갑</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>유기홍</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>관악구갑</t>
+        </is>
+      </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154">
@@ -6306,15 +6698,23 @@
           <t>관악 을</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>정태호</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>관악구을</t>
+        </is>
+      </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155">
@@ -6339,15 +6739,23 @@
           <t>광진 갑</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>전혜숙</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>광진구갑</t>
+        </is>
+      </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156">
@@ -6372,15 +6780,23 @@
           <t>광진 을</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr"/>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>고민정</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>광진구을</t>
+        </is>
+      </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157">
@@ -6421,7 +6837,7 @@
         </is>
       </c>
       <c r="I157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
@@ -6462,7 +6878,7 @@
         </is>
       </c>
       <c r="I158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159">
@@ -6503,7 +6919,7 @@
         </is>
       </c>
       <c r="I159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160">
@@ -6544,7 +6960,7 @@
         </is>
       </c>
       <c r="I160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161">
@@ -6569,15 +6985,23 @@
           <t>노원 병</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr"/>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>김성환</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>노원구병</t>
+        </is>
+      </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162">
@@ -6618,7 +7042,7 @@
         </is>
       </c>
       <c r="I162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163">
@@ -6643,15 +7067,23 @@
           <t>도봉 갑</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr"/>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>인재근</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>도봉구갑</t>
+        </is>
+      </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164">
@@ -6676,15 +7108,23 @@
           <t>도봉 을</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr"/>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>오기형</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>도봉구을</t>
+        </is>
+      </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165">
@@ -6709,15 +7149,23 @@
           <t>동대문 갑</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr"/>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>안규백</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>동대문구갑</t>
+        </is>
+      </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166">
@@ -6742,15 +7190,23 @@
           <t>동대문 을</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr"/>
-      <c r="G166" t="inlineStr"/>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>장경태</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>동대문구을</t>
+        </is>
+      </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167">
@@ -6775,15 +7231,23 @@
           <t>동작 갑</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr"/>
-      <c r="G167" t="inlineStr"/>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>김병기</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>동작구갑</t>
+        </is>
+      </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168">
@@ -6808,15 +7272,23 @@
           <t>동작 을</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr"/>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>이수진</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>동작구을</t>
+        </is>
+      </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169">
@@ -6841,15 +7313,23 @@
           <t>마포 갑</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr"/>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>노웅래</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>마포구갑</t>
+        </is>
+      </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170">
@@ -6890,7 +7370,7 @@
         </is>
       </c>
       <c r="I170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171">
@@ -6931,7 +7411,7 @@
         </is>
       </c>
       <c r="I171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
@@ -6972,7 +7452,7 @@
         </is>
       </c>
       <c r="I172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173">
@@ -7038,15 +7518,23 @@
           <t>서초 을</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr"/>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>박성중</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>서초구을</t>
+        </is>
+      </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>미래통합당</t>
         </is>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -7087,7 +7575,7 @@
         </is>
       </c>
       <c r="I175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176">
@@ -7128,7 +7616,7 @@
         </is>
       </c>
       <c r="I176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177">
@@ -7153,15 +7641,23 @@
           <t>송파 갑</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr"/>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>김웅</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>송파구갑</t>
+        </is>
+      </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>미래통합당</t>
         </is>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -7186,15 +7682,23 @@
           <t>송파 병</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>남인순</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>송파구병</t>
+        </is>
+      </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179">
@@ -7260,15 +7764,23 @@
           <t>양천 갑</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>황희</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>양천구갑</t>
+        </is>
+      </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181">
@@ -7293,15 +7805,23 @@
           <t>양천 을</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>이용선</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>양천구을</t>
+        </is>
+      </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182">
@@ -7326,15 +7846,23 @@
           <t>영등포 갑</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>김영주</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>영등포구갑</t>
+        </is>
+      </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183">
@@ -7359,15 +7887,23 @@
           <t>영등포 을</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>김민석</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>영등포구을</t>
+        </is>
+      </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184">
@@ -7392,15 +7928,23 @@
           <t>용산구</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>권영세</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>용산구</t>
+        </is>
+      </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>미래통합당</t>
         </is>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -7441,7 +7985,7 @@
         </is>
       </c>
       <c r="I185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186">
@@ -7482,7 +8026,7 @@
         </is>
       </c>
       <c r="I186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187">
@@ -7523,7 +8067,7 @@
         </is>
       </c>
       <c r="I187" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188">
@@ -7549,15 +8093,23 @@
 갑</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>홍익표</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>중구성동구갑</t>
+        </is>
+      </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189">
@@ -7583,15 +8135,23 @@
 을</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>박성준</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>중구성동구을</t>
+        </is>
+      </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190">
@@ -7632,7 +8192,7 @@
         </is>
       </c>
       <c r="I190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191">
@@ -7673,7 +8233,7 @@
         </is>
       </c>
       <c r="I191" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192">
@@ -7714,7 +8274,7 @@
         </is>
       </c>
       <c r="I192" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193">
@@ -7755,7 +8315,7 @@
         </is>
       </c>
       <c r="I193" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194">
@@ -7903,15 +8463,23 @@
           <t>북구</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>이상헌</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>북구</t>
+        </is>
+      </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198">
@@ -8035,7 +8603,7 @@
         </is>
       </c>
       <c r="I200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201">
@@ -8076,7 +8644,7 @@
         </is>
       </c>
       <c r="I201" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202">
@@ -8101,15 +8669,23 @@
           <t>남동 갑</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr"/>
-      <c r="G202" t="inlineStr"/>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>맹성규</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>남동구갑</t>
+        </is>
+      </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203">
@@ -8134,15 +8710,23 @@
           <t>남동 을</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr"/>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>윤관석</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>남동구을</t>
+        </is>
+      </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204">
@@ -8169,15 +8753,23 @@
 갑</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr"/>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>허종식</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>동구미추홀구갑</t>
+        </is>
+      </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205">
@@ -8220,7 +8812,7 @@
         </is>
       </c>
       <c r="I205" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -8261,7 +8853,7 @@
         </is>
       </c>
       <c r="I206" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207">
@@ -8302,7 +8894,7 @@
         </is>
       </c>
       <c r="I207" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208">
@@ -8343,7 +8935,7 @@
         </is>
       </c>
       <c r="I208" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209">
@@ -8384,7 +8976,7 @@
         </is>
       </c>
       <c r="I209" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210">
@@ -8425,7 +9017,7 @@
         </is>
       </c>
       <c r="I210" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211">
@@ -8450,15 +9042,23 @@
           <t>연수 을</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>정일영</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>연수구을</t>
+        </is>
+      </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212">
@@ -8543,7 +9143,7 @@
         </is>
       </c>
       <c r="I213" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214">
@@ -8584,7 +9184,7 @@
         </is>
       </c>
       <c r="I214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215">
@@ -8626,7 +9226,7 @@
         </is>
       </c>
       <c r="I215" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216">
@@ -8651,15 +9251,23 @@
           <t>목포</t>
         </is>
       </c>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>김원이</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>목포시</t>
+        </is>
+      </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217">
@@ -8702,7 +9310,7 @@
         </is>
       </c>
       <c r="I217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218">
@@ -8745,7 +9353,7 @@
         </is>
       </c>
       <c r="I218" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219">
@@ -8786,7 +9394,7 @@
         </is>
       </c>
       <c r="I219" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220">
@@ -8827,7 +9435,7 @@
         </is>
       </c>
       <c r="I220" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221">
@@ -8870,7 +9478,7 @@
         </is>
       </c>
       <c r="I221" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222">
@@ -8913,7 +9521,7 @@
         </is>
       </c>
       <c r="I222" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223">
@@ -8954,7 +9562,7 @@
         </is>
       </c>
       <c r="I223" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224">
@@ -8995,7 +9603,7 @@
         </is>
       </c>
       <c r="I224" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225">
@@ -9038,7 +9646,7 @@
         </is>
       </c>
       <c r="I225" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -9080,7 +9688,7 @@
         </is>
       </c>
       <c r="I226" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227">
@@ -9121,7 +9729,7 @@
         </is>
       </c>
       <c r="I227" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228">
@@ -9162,7 +9770,7 @@
         </is>
       </c>
       <c r="I228" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229">
@@ -9203,7 +9811,7 @@
         </is>
       </c>
       <c r="I229" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230">
@@ -9244,7 +9852,7 @@
         </is>
       </c>
       <c r="I230" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231">
@@ -9285,7 +9893,7 @@
         </is>
       </c>
       <c r="I231" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232">
@@ -9326,7 +9934,7 @@
         </is>
       </c>
       <c r="I232" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233">
@@ -9367,7 +9975,7 @@
         </is>
       </c>
       <c r="I233" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234">
@@ -9408,7 +10016,7 @@
         </is>
       </c>
       <c r="I234" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235">
@@ -9449,7 +10057,7 @@
         </is>
       </c>
       <c r="I235" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236">
@@ -9535,7 +10143,7 @@
         </is>
       </c>
       <c r="I237" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238">
@@ -9576,7 +10184,7 @@
         </is>
       </c>
       <c r="I238" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239">
@@ -9601,15 +10209,23 @@
           <t>보령 서천</t>
         </is>
       </c>
-      <c r="F239" t="inlineStr"/>
-      <c r="G239" t="inlineStr"/>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>김태흠</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>보령시서천군</t>
+        </is>
+      </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>미래통합당</t>
         </is>
       </c>
       <c r="I239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -9732,7 +10348,7 @@
         </is>
       </c>
       <c r="I242" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243">
@@ -9757,15 +10373,23 @@
           <t>천안 갑</t>
         </is>
       </c>
-      <c r="F243" t="inlineStr"/>
-      <c r="G243" t="inlineStr"/>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>문진석</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>천안시갑</t>
+        </is>
+      </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244">
@@ -9790,15 +10414,23 @@
           <t>천안 병</t>
         </is>
       </c>
-      <c r="F244" t="inlineStr"/>
-      <c r="G244" t="inlineStr"/>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>이정문</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>천안시병</t>
+        </is>
+      </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245">
@@ -9839,7 +10471,7 @@
         </is>
       </c>
       <c r="I245" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246">
@@ -10006,7 +10638,7 @@
         </is>
       </c>
       <c r="I249" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250">
@@ -10047,7 +10679,7 @@
         </is>
       </c>
       <c r="I250" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251">
@@ -10088,7 +10720,7 @@
         </is>
       </c>
       <c r="I251" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252">
@@ -10113,15 +10745,23 @@
           <t>청주 청원</t>
         </is>
       </c>
-      <c r="F252" t="inlineStr"/>
-      <c r="G252" t="inlineStr"/>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>변재일</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>청주시청원구</t>
+        </is>
+      </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>경선중</t>
+          <t>더불어민주당</t>
         </is>
       </c>
       <c r="I252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253">
@@ -10162,7 +10802,7 @@
         </is>
       </c>
       <c r="I253" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254">
@@ -10207,6 +10847,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>